--- a/templates/AutomationOrg/RSTK-9531-SYDATA-Create Generate WO picklist transaction.xlsx
+++ b/templates/AutomationOrg/RSTK-9531-SYDATA-Create Generate WO picklist transaction.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8813B750-396D-4C03-8F87-8C3710B82216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6500D549-7425-4718-9105-56F792B5A61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77C97FEF-7E82-40F3-B240-8FA62379481A}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,20 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Background Processing</t>
   </si>
   <si>
-    <t>Processing Indicator</t>
-  </si>
-  <si>
-    <t>Work Order Header</t>
-  </si>
-  <si>
     <t>Site</t>
   </si>
   <si>
@@ -76,7 +66,7 @@
     <t>1020_PC1</t>
   </si>
   <si>
-    <t>Pro-Lot Track (Lot Track)</t>
+    <t>Pro-SYDATA1 (Lot track)</t>
   </si>
 </sst>
 </file>
@@ -439,7 +429,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="A3:XFD3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,80 +448,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959EC9CC-EA11-4AD4-BD2A-72ED4DB4E2CE}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
